--- a/fpl_forwardNew.xlsx
+++ b/fpl_forwardNew.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,19 +458,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kane (F)</t>
+          <t>Ronaldo (F)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>MUN</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="D2" t="n">
-        <v>4.173889999999989</v>
+        <v>1.285520000000001</v>
       </c>
     </row>
     <row r="3">
@@ -488,25 +488,25 @@
         <v>8.6</v>
       </c>
       <c r="D3" t="n">
-        <v>4.372190000000002</v>
+        <v>3.27998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Toney (F)</t>
+          <t>Pukki (F)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRE</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>5.264500000000006</v>
+        <v>5.44088</v>
       </c>
     </row>
     <row r="5">
@@ -524,43 +524,43 @@
         <v>7.5</v>
       </c>
       <c r="D5" t="n">
-        <v>4.587510000000004</v>
+        <v>4.488130000000005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pukki (F)</t>
+          <t>Toney (F)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>BRE</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="D6" t="n">
-        <v>5.75608</v>
+        <v>4.739100000000004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wood (F)</t>
+          <t>Watkins (F)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AVL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="D7" t="n">
-        <v>3.786480000000002</v>
+        <v>4.165830000000001</v>
       </c>
     </row>
     <row r="8">
@@ -578,43 +578,43 @@
         <v>6.3</v>
       </c>
       <c r="D8" t="n">
-        <v>6.252800000000001</v>
+        <v>6.508559999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ayew (F)</t>
+          <t>Kane (F)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CRY</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.8</v>
+        <v>12.6</v>
       </c>
       <c r="D9" t="n">
-        <v>4.56844</v>
+        <v>4.417440000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jesus (F)</t>
+          <t>Nketiah (F)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.4</v>
+        <v>5.4</v>
       </c>
       <c r="D10" t="n">
-        <v>3.551610000000002</v>
+        <v>2.692490000000001</v>
       </c>
     </row>
     <row r="11">
@@ -632,79 +632,79 @@
         <v>4.6</v>
       </c>
       <c r="D11" t="n">
-        <v>4.53642</v>
+        <v>5.267740000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Watkins (F)</t>
+          <t>Wood (F)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AVL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="D12" t="n">
-        <v>4.045009999999998</v>
+        <v>4.32031</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mateta (F)</t>
+          <t>Iheanacho (F)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CRY</t>
+          <t>LEI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.3</v>
+        <v>7.1</v>
       </c>
       <c r="D13" t="n">
-        <v>3.908320000000001</v>
+        <v>3.488909999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Iheanacho (F)</t>
+          <t>Ayew (F)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LEI</t>
+          <t>CRY</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7.1</v>
+        <v>5.8</v>
       </c>
       <c r="D14" t="n">
-        <v>3.988270000000005</v>
+        <v>4.11309</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rodriguez (F)</t>
+          <t>Jesus (F)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BUR</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5.2</v>
+        <v>8.4</v>
       </c>
       <c r="D15" t="n">
-        <v>2.821580000000001</v>
+        <v>3.448770000000001</v>
       </c>
     </row>
     <row r="16">
@@ -722,13 +722,13 @@
         <v>5.6</v>
       </c>
       <c r="D16" t="n">
-        <v>4.11744</v>
+        <v>4.18926</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Vydra (F)</t>
+          <t>Rodriguez (F)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -740,97 +740,97 @@
         <v>5.2</v>
       </c>
       <c r="D17" t="n">
-        <v>4.21354</v>
+        <v>3.6478</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Antonio (F)</t>
+          <t>Dennis (F)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WHU</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="D18" t="n">
-        <v>3.408110000000001</v>
+        <v>3.81317</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Broja (F)</t>
+          <t>Mateta (F)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SOU</t>
+          <t>CRY</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="D19" t="n">
-        <v>4.1303</v>
+        <v>2.982480000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Adams (F)</t>
+          <t>Weghorst (F)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SOU</t>
+          <t>BUR</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="D20" t="n">
-        <v>4.391310000000001</v>
+        <v>3.896240000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Welbeck (F)</t>
+          <t>Antonio (F)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BHA</t>
+          <t>WHU</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.9</v>
+        <v>7.5</v>
       </c>
       <c r="D21" t="n">
-        <v>2.953280000000001</v>
+        <v>4.939700000000004</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lacazette (F)</t>
+          <t>Rondón (F)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>EVE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>4.593300000000003</v>
+        <v>3.66566</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         <v>5.4</v>
       </c>
       <c r="D23" t="n">
-        <v>4.90482</v>
+        <v>4.434570000000001</v>
       </c>
     </row>
     <row r="24">
@@ -872,361 +872,361 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Firmino (F)</t>
+          <t>Vydra (F)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LIV</t>
+          <t>BUR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8.699999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="D25" t="n">
-        <v>3.994710000000003</v>
+        <v>3.64662</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Saint-Maximin (F)</t>
+          <t>Welbeck (F)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>BHA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="D26" t="n">
-        <v>6.318120000000004</v>
+        <v>3.54513</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hwang (F)</t>
+          <t>Saint-Maximin (F)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="D27" t="n">
-        <v>4.41347</v>
+        <v>5.551400000000002</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Daka (F)</t>
+          <t>Broja (F)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LEI</t>
+          <t>SOU</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D28" t="n">
-        <v>4.271560000000001</v>
+        <v>4.71128</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Weghorst (F)</t>
+          <t>Lacazette (F)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BUR</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>4.13997</v>
+        <v>4.992730000000003</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bamford (F)</t>
+          <t>Adams (F)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LEE</t>
+          <t>SOU</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="D30" t="n">
-        <v>5.114250000000002</v>
+        <v>4.120130000000004</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ings (F)</t>
+          <t>Joelinton (F)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AVL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7.7</v>
+        <v>5.8</v>
       </c>
       <c r="D31" t="n">
-        <v>3.908610000000002</v>
+        <v>2.14306</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Long (F)</t>
+          <t>Edouard (F)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SOU</t>
+          <t>CRY</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="D32" t="n">
-        <v>3.69288</v>
+        <v>3.91222</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Lukaku (F)</t>
+          <t>Firmino (F)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>LIV</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>11.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>9.633670000000004</v>
+        <v>3.994710000000003</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Joelinton (F)</t>
+          <t>Hwang (F)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="D34" t="n">
-        <v>3.92806</v>
+        <v>4.36594</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Rondón (F)</t>
+          <t>Daka (F)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EVE</t>
+          <t>LEI</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>3.72472</v>
+        <v>4.15285</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Barnes (F)</t>
+          <t>Cucho (F)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BUR</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>3.511</v>
+        <v>1.959479999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>King (F)</t>
+          <t>A.Armstrong (F)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>SOU</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="D37" t="n">
-        <v>3.6175</v>
+        <v>4.63184</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Gelhardt (F)</t>
+          <t>Barnes (F)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LEE</t>
+          <t>BUR</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="D38" t="n">
-        <v>5.35252</v>
+        <v>3.511</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Nketiah (F)</t>
+          <t>King (F)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="D39" t="n">
-        <v>3.15832</v>
+        <v>3.83104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Dennis (F)</t>
+          <t>Ings (F)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>AVL</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5.9</v>
+        <v>7.7</v>
       </c>
       <c r="D40" t="n">
-        <v>3.776339999999999</v>
+        <v>3.474250000000004</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cucho (F)</t>
+          <t>Gelhardt (F)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>LEE</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="D41" t="n">
-        <v>1.959479999999999</v>
+        <v>5.35252</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A.Armstrong (F)</t>
+          <t>Gayle (F)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SOU</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="D42" t="n">
-        <v>4.63184</v>
+        <v>3.5047</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Ronaldo (F)</t>
+          <t>Lukaku (F)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MUN</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>12.2</v>
+        <v>11.4</v>
       </c>
       <c r="D43" t="n">
-        <v>3.888870000000011</v>
+        <v>6.797110000000002</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Edouard (F)</t>
+          <t>Long (F)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CRY</t>
+          <t>SOU</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="D44" t="n">
-        <v>4.0202</v>
+        <v>3.93574</v>
       </c>
     </row>
     <row r="45">
@@ -1244,25 +1244,7 @@
         <v>6.4</v>
       </c>
       <c r="D45" t="n">
-        <v>2.31826</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Jiménez (F)</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>WOL</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D46" t="n">
-        <v>8.869980000000002</v>
+        <v>3.50502</v>
       </c>
     </row>
   </sheetData>
